--- a/data_labels.xlsx
+++ b/data_labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocument\Material_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB72C2B-3CDA-4745-95AF-55ADB1276F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B35FC6-18B0-44FE-8BAF-49EAD4645084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,27 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Compressive strength (MPa)</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -68,15 +58,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -296,279 +282,274 @@
     <tabColor rgb="FFFFF2CC"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
+        <v>62.67</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>62.67</v>
+      <c r="A2" s="1">
+        <v>54.5</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>54.5</v>
+      <c r="A3" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>80</v>
+      <c r="A4" s="1">
+        <v>59.98</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>59.98</v>
+      <c r="A5" s="1">
+        <v>53.03</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>53.03</v>
+      <c r="A6" s="1">
+        <v>61.8</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>61.8</v>
+      <c r="A7" s="1">
+        <v>64.7</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>64.7</v>
+      <c r="A8" s="1">
+        <v>64.8</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>64.8</v>
+      <c r="A9" s="1">
+        <v>52.1</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>52.1</v>
+      <c r="A10" s="1">
+        <v>73.599999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>73.599999999999994</v>
+      <c r="A11" s="1">
+        <v>66.05</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>66.05</v>
+      <c r="A12" s="1">
+        <v>57.2</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>57.2</v>
+      <c r="A13" s="1">
+        <v>63.25</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>63.25</v>
+      <c r="A14" s="1">
+        <v>52.7</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>52.7</v>
+      <c r="A15" s="1">
+        <v>63.4</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>63.4</v>
+      <c r="A16" s="1">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+      <c r="A17" s="1">
         <v>63.2</v>
       </c>
     </row>
+    <row r="18" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>55.75</v>
+      </c>
+    </row>
     <row r="19" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>55.75</v>
+      <c r="A19" s="1">
+        <v>46.87</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>46.87</v>
+      <c r="A20" s="1">
+        <v>55.66</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>55.66</v>
+      <c r="A21" s="1">
+        <v>42.2</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>42.2</v>
+      <c r="A22" s="1">
+        <v>52.47</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>52.47</v>
+      <c r="A23" s="1">
+        <v>47.98</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>47.98</v>
+      <c r="A24" s="1">
+        <v>33.9</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>33.9</v>
+      <c r="A25" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>25</v>
+      <c r="A26" s="1">
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>38</v>
+      <c r="A27" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>32</v>
+      <c r="A28" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>26</v>
+      <c r="A29" s="1">
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>52</v>
+      <c r="A30" s="1">
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>45</v>
+      <c r="A32" s="1">
+        <v>41.97</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>41.97</v>
+      <c r="A33" s="1">
+        <v>41.17</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>41.17</v>
+      <c r="A34" s="1">
+        <v>36.72</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>36.72</v>
+      <c r="A35" s="1">
+        <v>25.9</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>25.9</v>
+      <c r="A36" s="1">
+        <v>32.32</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
-        <v>32.32</v>
+      <c r="A37" s="1">
+        <v>44.73</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>44.73</v>
+      <c r="A38" s="1">
+        <v>42.4</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>42.4</v>
+      <c r="A39" s="1">
+        <v>46.2</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
-        <v>46.2</v>
+      <c r="A40" s="1">
+        <v>61.45</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
-        <v>61.45</v>
+      <c r="A41" s="1">
+        <v>21.72</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
-        <v>21.72</v>
+      <c r="A42" s="1">
+        <v>30.51</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
-        <v>30.51</v>
+      <c r="A43" s="1">
+        <v>44.67</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
-        <v>44.67</v>
+      <c r="A44" s="1">
+        <v>35.72</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
-        <v>35.72</v>
+      <c r="A45" s="1">
+        <v>50.33</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
-        <v>50.33</v>
+      <c r="A46" s="1">
+        <v>47.5</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
-        <v>47.5</v>
+      <c r="A47" s="1">
+        <v>53.9</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
-        <v>53.9</v>
+      <c r="A48" s="1">
+        <v>30.38</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
-        <v>30.38</v>
+      <c r="A49" s="1">
+        <v>32.119999999999997</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
-        <v>32.119999999999997</v>
+      <c r="A50" s="1">
+        <v>33.15</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
-        <v>33.15</v>
+      <c r="A51" s="1">
+        <v>42.15</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
-        <v>42.15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
+      <c r="A52" s="1">
         <v>41.73</v>
       </c>
     </row>

--- a/data_labels.xlsx
+++ b/data_labels.xlsx
@@ -2,35 +2,66 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocument\Material_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B35FC6-18B0-44FE-8BAF-49EAD4645084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD2AFF05-0772-4234-A605-4754772998A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{931D6DDF-D82F-4F17-8EE8-B5B285E5F4A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="C-S" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Compressive strength (MPa)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -58,11 +89,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -81,56 +117,150 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -273,287 +403,975 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFF2CC"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:A52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7446501-8695-4570-8F09-0C56D161FCDF}">
+  <dimension ref="A1:A158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <f>156675/2500</f>
         <v>62.67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <f>156575/2500</f>
+        <v>62.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <f>156775/2500</f>
+        <v>62.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <f>136250/2500</f>
         <v>54.5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <f>136200/2500</f>
+        <v>54.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <f>136300/2500</f>
+        <v>54.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <f>200000/2500</f>
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <f>199900/2500</f>
+        <v>79.959999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <f>200100/2500</f>
+        <v>80.040000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <f>149950/2500</f>
         <v>59.98</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <f>149900/2500</f>
+        <v>59.96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <f>150000/2500</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <f>132575/2500</f>
         <v>53.03</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <f>132550/2500</f>
+        <v>53.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <f>132600/2500</f>
+        <v>53.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <f>154500/2500</f>
         <v>61.8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <f>154400/2500</f>
+        <v>61.76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <f>154600/2500</f>
+        <v>61.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <f>161750/2500</f>
         <v>64.7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <f>161725/2500</f>
+        <v>64.69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <f>161775/2500</f>
+        <v>64.709999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <f>162000/2500</f>
         <v>64.8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <f>161900/2500</f>
+        <v>64.760000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <f>162100/2500</f>
+        <v>64.84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <f>130250/2500</f>
         <v>52.1</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <f>130200/2500</f>
+        <v>52.08</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <f>130300/2500</f>
+        <v>52.12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <f>184000/2500</f>
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <f>184050/2500</f>
+        <v>73.62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <f>184100/2500</f>
+        <v>73.64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <f>165125/2500</f>
         <v>66.05</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <f>165100/2500</f>
+        <v>66.040000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <f>165150/2500</f>
+        <v>66.06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <f>143000/2500</f>
         <v>57.2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <f>143100/2500</f>
+        <v>57.24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <f>142900/2500</f>
+        <v>57.16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <f>158125/2500</f>
         <v>63.25</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <f>158250/2500</f>
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <f>158000/2500</f>
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <f>131750/2500</f>
         <v>52.7</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <f>132000/2500</f>
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <f>131500/2500</f>
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <f>158500/2500</f>
         <v>63.4</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <f>159000/2500</f>
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <f>158000/2500</f>
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <f>110000/2500</f>
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <f>110100/2500</f>
+        <v>44.04</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <f>109900/2500</f>
+        <v>43.96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <f>158000/2500</f>
         <v>63.2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <f>157950/2500</f>
+        <v>63.18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <f>158050/2500</f>
+        <v>63.22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <f>139375/2500</f>
         <v>55.75</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <f>139750/2500</f>
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <f>139000/2500</f>
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <f>117175/2500</f>
         <v>46.87</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <f>117150/2500</f>
+        <v>46.86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
+        <f>117200/2500</f>
+        <v>46.88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
+        <f>139150/2500</f>
         <v>55.66</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
+        <f>139000/2500</f>
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
+        <f>139300/2500</f>
+        <v>55.72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
+        <f>105500/2500</f>
         <v>42.2</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
+        <f>105250/2500</f>
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
+        <f>105750/2500</f>
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
+        <f>131175/2500</f>
         <v>52.47</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
+        <f>131200/2500</f>
+        <v>52.48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
+        <f>131150/2500</f>
+        <v>52.46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3">
+        <f>119950/2500</f>
         <v>47.98</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
+        <f>120000/2500</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
+        <f>119900/2500</f>
+        <v>47.96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="3">
+        <f>84750/2500</f>
         <v>33.9</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
+        <f>84500/2500</f>
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
+        <f>85000/2500</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
+        <f>62500/2500</f>
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
+        <f>62750/2500</f>
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="3">
+        <f>62250/2500</f>
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
+        <f>95000/2500</f>
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
+        <f>95100/2500</f>
+        <v>38.04</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
+        <f>94900/2500</f>
+        <v>37.96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
+        <f>80000/2500</f>
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
+        <f>79950/2500</f>
+        <v>31.98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
+        <f>80050/2500</f>
+        <v>32.020000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
+        <f>65000/2500</f>
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
+        <f>65025/2500</f>
+        <v>26.01</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="3">
+        <f>64975/2500</f>
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="3">
+        <f>130000/2500</f>
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="3">
+        <f>130050/2500</f>
+        <v>52.02</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="3">
+        <f>129950/2500</f>
+        <v>51.98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
+        <f>112500/2500</f>
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="3">
+        <f>113000/2500</f>
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="3">
+        <f>112000/2500</f>
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="3">
+        <f>112500/2500</f>
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="3">
+        <f>112750/2500</f>
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="3">
+        <f>112250/2500</f>
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="3">
+        <f>104925/2500</f>
         <v>41.97</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="3">
+        <f>104900/2500</f>
+        <v>41.96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="3">
+        <f>104950/2500</f>
+        <v>41.98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="3">
+        <f>102925/2500</f>
         <v>41.17</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="3">
+        <f>102900/2500</f>
+        <v>41.16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="3">
+        <f>102950/2500</f>
+        <v>41.18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="3">
+        <f t="shared" ref="A102:A104" si="0">91800/2500</f>
         <v>36.72</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="3">
+        <f t="shared" si="0"/>
+        <v>36.72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="3">
+        <f t="shared" si="0"/>
+        <v>36.72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="3">
+        <f>64750/2500</f>
         <v>25.9</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="3">
+        <f>64500/2500</f>
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="3">
+        <f>65000/2500</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="3">
+        <f>80800/2500</f>
         <v>32.32</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="3">
+        <f>80900/2500</f>
+        <v>32.36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="3">
+        <f>80700/2500</f>
+        <v>32.28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="3">
+        <f>111825/2500</f>
         <v>44.73</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" s="3">
+        <f>111800/2500</f>
+        <v>44.72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" s="3">
+        <f>111850/2500</f>
+        <v>44.74</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" s="3">
+        <f>106000/2500</f>
         <v>42.4</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="3">
+        <f>105900/2500</f>
+        <v>42.36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="3">
+        <f>106100/2500</f>
+        <v>42.44</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" s="3">
+        <f>115500/2500</f>
         <v>46.2</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" s="3">
+        <f>115250/2500</f>
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" s="3">
+        <f>115750/2500</f>
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" s="3">
+        <f>153625/2500</f>
         <v>61.45</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" s="3">
+        <f>153650/2500</f>
+        <v>61.46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" s="3">
+        <f>153600/2500</f>
+        <v>61.44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" s="3">
+        <f>54300/2500</f>
         <v>21.72</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" s="3">
+        <f>54400/2500</f>
+        <v>21.76</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" s="3">
+        <f>54200/2500</f>
+        <v>21.68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" s="3">
+        <f>76275/2500</f>
         <v>30.51</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" s="3">
+        <f>76250/2500</f>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" s="3">
+        <f>76300/2500</f>
+        <v>30.52</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" s="3">
+        <f>111675/2500</f>
         <v>44.67</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" s="3">
+        <f>111700/2500</f>
+        <v>44.68</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" s="3">
+        <f>111650/2500</f>
+        <v>44.66</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" s="3">
+        <f>89300/2500</f>
         <v>35.72</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" s="3">
+        <f>89400/2500</f>
+        <v>35.76</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" s="3">
+        <f>89200/2500</f>
+        <v>35.68</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" s="3">
+        <f>125825/2500</f>
         <v>50.33</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" s="3">
+        <f>125800/2500</f>
+        <v>50.32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" s="3">
+        <f>125850/2500</f>
+        <v>50.34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" s="3">
+        <f>118750/2500</f>
         <v>47.5</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" s="3">
+        <f>118800/2500</f>
+        <v>47.52</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" s="3">
+        <f>118700/2500</f>
+        <v>47.48</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" s="3">
+        <f>134750/2500</f>
         <v>53.9</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" s="3">
+        <f>134500/2500</f>
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" s="3">
+        <f>135000/2500</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" s="3">
+        <f>75950/2500</f>
         <v>30.38</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" s="3">
+        <f>75900/2500</f>
+        <v>30.36</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" s="3">
+        <f>76000/2500</f>
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" s="3">
+        <f>80300/2500</f>
         <v>32.119999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" s="3">
+        <f>80200/2500</f>
+        <v>32.08</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" s="3">
+        <f>80400/2500</f>
+        <v>32.159999999999997</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" s="3">
+        <f>82875/2500</f>
         <v>33.15</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" s="3">
+        <f>82900/2500</f>
+        <v>33.159999999999997</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" s="3">
+        <f>82850/2500</f>
+        <v>33.14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" s="3">
+        <f>105375/2500</f>
         <v>42.15</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" s="3">
+        <f>105250/2500</f>
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" s="3">
+        <f>105500/2500</f>
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" s="3">
+        <f>104325/2500</f>
         <v>41.73</v>
       </c>
     </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" s="3">
+        <f>104350/2500</f>
+        <v>41.74</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" s="3">
+        <f>104300/2500</f>
+        <v>41.72</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data_labels.xlsx
+++ b/data_labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocument\Material_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD2AFF05-0772-4234-A605-4754772998A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9DC835-7DBF-4718-B5C3-8EC5C323EEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{931D6DDF-D82F-4F17-8EE8-B5B285E5F4A3}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,10 +58,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
@@ -89,16 +85,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,965 +407,959 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7446501-8695-4570-8F09-0C56D161FCDF}">
-  <dimension ref="A1:A158"/>
+  <dimension ref="A1:A157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A2" s="1">
         <f>156675/2500</f>
         <v>62.67</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <f>156575/2500</f>
         <v>62.63</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <f>156775/2500</f>
         <v>62.71</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <f>136250/2500</f>
         <v>54.5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <f>136200/2500</f>
         <v>54.48</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <f>136300/2500</f>
         <v>54.52</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <f>200000/2500</f>
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <f>199900/2500</f>
         <v>79.959999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <f>200100/2500</f>
         <v>80.040000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <f>149950/2500</f>
         <v>59.98</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <f>149900/2500</f>
         <v>59.96</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <f>150000/2500</f>
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <f>132575/2500</f>
         <v>53.03</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <f>132550/2500</f>
         <v>53.02</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <f>132600/2500</f>
         <v>53.04</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <f>154500/2500</f>
         <v>61.8</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <f>154400/2500</f>
         <v>61.76</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <f>154600/2500</f>
         <v>61.84</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <f>161750/2500</f>
         <v>64.7</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <f>161725/2500</f>
         <v>64.69</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <f>161775/2500</f>
         <v>64.709999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
         <f>162000/2500</f>
         <v>64.8</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <f>161900/2500</f>
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <f>162100/2500</f>
         <v>64.84</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <f>130250/2500</f>
         <v>52.1</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
         <f>130200/2500</f>
         <v>52.08</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
         <f>130300/2500</f>
         <v>52.12</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
         <f>184000/2500</f>
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <f>184050/2500</f>
         <v>73.62</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
         <f>184100/2500</f>
         <v>73.64</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
         <f>165125/2500</f>
         <v>66.05</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
         <f>165100/2500</f>
         <v>66.040000000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <f>165150/2500</f>
         <v>66.06</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
         <f>143000/2500</f>
         <v>57.2</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
         <f>143100/2500</f>
         <v>57.24</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <f>142900/2500</f>
         <v>57.16</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <f>158125/2500</f>
         <v>63.25</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
         <f>158250/2500</f>
         <v>63.3</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <f>158000/2500</f>
         <v>63.2</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
         <f>131750/2500</f>
         <v>52.7</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <f>132000/2500</f>
         <v>52.8</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <f>131500/2500</f>
         <v>52.6</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <f>158500/2500</f>
         <v>63.4</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
         <f>159000/2500</f>
         <v>63.6</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
         <f>158000/2500</f>
         <v>63.2</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
         <f>110000/2500</f>
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
         <f>110100/2500</f>
         <v>44.04</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
         <f>109900/2500</f>
         <v>43.96</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
         <f>158000/2500</f>
         <v>63.2</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
         <f>157950/2500</f>
         <v>63.18</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
         <f>158050/2500</f>
         <v>63.22</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
         <f>139375/2500</f>
         <v>55.75</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
         <f>139750/2500</f>
         <v>55.9</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
         <f>139000/2500</f>
         <v>55.6</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
         <f>117175/2500</f>
         <v>46.87</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
         <f>117150/2500</f>
         <v>46.86</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
         <f>117200/2500</f>
         <v>46.88</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
         <f>139150/2500</f>
         <v>55.66</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
         <f>139000/2500</f>
         <v>55.6</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" s="3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
         <f>139300/2500</f>
         <v>55.72</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
         <f>105500/2500</f>
         <v>42.2</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" s="3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
         <f>105250/2500</f>
         <v>42.1</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
         <f>105750/2500</f>
         <v>42.3</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
         <f>131175/2500</f>
         <v>52.47</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
         <f>131200/2500</f>
         <v>52.48</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
         <f>131150/2500</f>
         <v>52.46</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
         <f>119950/2500</f>
         <v>47.98</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
         <f>120000/2500</f>
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
         <f>119900/2500</f>
         <v>47.96</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
         <f>84750/2500</f>
         <v>33.9</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
         <f>84500/2500</f>
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
         <f>85000/2500</f>
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
         <f>62500/2500</f>
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
         <f>62750/2500</f>
         <v>25.1</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
         <f>62250/2500</f>
         <v>24.9</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
         <f>95000/2500</f>
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
         <f>95100/2500</f>
         <v>38.04</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
         <f>94900/2500</f>
         <v>37.96</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
         <f>80000/2500</f>
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
         <f>79950/2500</f>
         <v>31.98</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
         <f>80050/2500</f>
         <v>32.020000000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
         <f>65000/2500</f>
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
         <f>65025/2500</f>
         <v>26.01</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
         <f>64975/2500</f>
         <v>25.99</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
         <f>130000/2500</f>
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
         <f>130050/2500</f>
         <v>52.02</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
         <f>129950/2500</f>
         <v>51.98</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
         <f>112500/2500</f>
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
         <f>113000/2500</f>
         <v>45.2</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
         <f>112000/2500</f>
         <v>44.8</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
         <f>112500/2500</f>
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
         <f>112750/2500</f>
         <v>45.1</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
         <f>112250/2500</f>
         <v>44.9</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
         <f>104925/2500</f>
         <v>41.97</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
         <f>104900/2500</f>
         <v>41.96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
         <f>104950/2500</f>
         <v>41.98</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
         <f>102925/2500</f>
         <v>41.17</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
         <f>102900/2500</f>
         <v>41.16</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
         <f>102950/2500</f>
         <v>41.18</v>
       </c>
     </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <f t="shared" ref="A101:A103" si="0">91800/2500</f>
+        <v>36.72</v>
+      </c>
+    </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="3">
-        <f t="shared" ref="A102:A104" si="0">91800/2500</f>
-        <v>36.72</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="3">
+      <c r="A102" s="1">
         <f t="shared" si="0"/>
         <v>36.72</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
         <f t="shared" si="0"/>
         <v>36.72</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
         <f>64750/2500</f>
         <v>25.9</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
         <f>64500/2500</f>
         <v>25.8</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
         <f>65000/2500</f>
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
         <f>80800/2500</f>
         <v>32.32</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
         <f>80900/2500</f>
         <v>32.36</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
         <f>80700/2500</f>
         <v>32.28</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
         <f>111825/2500</f>
         <v>44.73</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
         <f>111800/2500</f>
         <v>44.72</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
         <f>111850/2500</f>
         <v>44.74</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
         <f>106000/2500</f>
         <v>42.4</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
         <f>105900/2500</f>
         <v>42.36</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
         <f>106100/2500</f>
         <v>42.44</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
         <f>115500/2500</f>
         <v>46.2</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
         <f>115250/2500</f>
         <v>46.1</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
         <f>115750/2500</f>
         <v>46.3</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
         <f>153625/2500</f>
         <v>61.45</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
         <f>153650/2500</f>
         <v>61.46</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" s="3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
         <f>153600/2500</f>
         <v>61.44</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
         <f>54300/2500</f>
         <v>21.72</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
         <f>54400/2500</f>
         <v>21.76</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
         <f>54200/2500</f>
         <v>21.68</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
         <f>76275/2500</f>
         <v>30.51</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
         <f>76250/2500</f>
         <v>30.5</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
         <f>76300/2500</f>
         <v>30.52</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
         <f>111675/2500</f>
         <v>44.67</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
         <f>111700/2500</f>
         <v>44.68</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
         <f>111650/2500</f>
         <v>44.66</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
         <f>89300/2500</f>
         <v>35.72</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
         <f>89400/2500</f>
         <v>35.76</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
         <f>89200/2500</f>
         <v>35.68</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
         <f>125825/2500</f>
         <v>50.33</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
         <f>125800/2500</f>
         <v>50.32</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
         <f>125850/2500</f>
         <v>50.34</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
         <f>118750/2500</f>
         <v>47.5</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
         <f>118800/2500</f>
         <v>47.52</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
         <f>118700/2500</f>
         <v>47.48</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" s="3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
         <f>134750/2500</f>
         <v>53.9</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" s="3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
         <f>134500/2500</f>
         <v>53.8</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" s="3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
         <f>135000/2500</f>
         <v>54</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
         <f>75950/2500</f>
         <v>30.38</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
         <f>75900/2500</f>
         <v>30.36</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
         <f>76000/2500</f>
         <v>30.4</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
         <f>80300/2500</f>
         <v>32.119999999999997</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" s="3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
         <f>80200/2500</f>
         <v>32.08</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" s="3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
         <f>80400/2500</f>
         <v>32.159999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" s="3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
         <f>82875/2500</f>
         <v>33.15</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
         <f>82900/2500</f>
         <v>33.159999999999997</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" s="3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
         <f>82850/2500</f>
         <v>33.14</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" s="3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
         <f>105375/2500</f>
         <v>42.15</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" s="3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
         <f>105250/2500</f>
         <v>42.1</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" s="3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
         <f>105500/2500</f>
         <v>42.2</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" s="3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
         <f>104325/2500</f>
         <v>41.73</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" s="3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
         <f>104350/2500</f>
         <v>41.74</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" s="3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
         <f>104300/2500</f>
         <v>41.72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>